--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220510_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220510_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-10</t>
@@ -679,6 +679,12 @@
     <t>해외</t>
   </si>
   <si>
+    <t>Studio Santa Claus</t>
+  </si>
+  <si>
+    <t>빅히트</t>
+  </si>
+  <si>
     <t>물고기뮤직</t>
   </si>
   <si>
@@ -718,9 +724,6 @@
     <t>YUE HUA</t>
   </si>
   <si>
-    <t>빅히트</t>
-  </si>
-  <si>
     <t>MusicFarm</t>
   </si>
   <si>
@@ -755,6 +758,9 @@
   </si>
   <si>
     <t>카카오</t>
+  </si>
+  <si>
+    <t>록스타</t>
   </si>
   <si>
     <t>플렉스엠</t>
@@ -1176,7 +1182,7 @@
         <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1202,7 +1208,7 @@
         <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1280,7 +1286,7 @@
         <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1306,7 +1312,7 @@
         <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1358,7 +1364,7 @@
         <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1410,7 +1416,7 @@
         <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1436,7 +1442,7 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1462,7 +1468,7 @@
         <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1488,7 +1494,7 @@
         <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1510,6 +1516,12 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
+      <c r="G15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -1534,7 +1546,7 @@
         <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1556,6 +1568,12 @@
       <c r="F17" t="s">
         <v>179</v>
       </c>
+      <c r="G17" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -1577,10 +1595,10 @@
         <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1603,10 +1621,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1655,10 +1673,10 @@
         <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1684,7 +1702,7 @@
         <v>218</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1707,10 +1725,10 @@
         <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1733,10 +1751,10 @@
         <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1759,10 +1777,10 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1785,10 +1803,10 @@
         <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1814,7 +1832,7 @@
         <v>213</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1837,10 +1855,10 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1863,10 +1881,10 @@
         <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1915,10 +1933,10 @@
         <v>186</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1967,10 +1985,10 @@
         <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1993,10 +2011,10 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2018,6 +2036,12 @@
       <c r="F35" t="s">
         <v>179</v>
       </c>
+      <c r="G35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
@@ -2042,7 +2066,7 @@
         <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2065,10 +2089,10 @@
         <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2090,6 +2114,12 @@
       <c r="F38" t="s">
         <v>179</v>
       </c>
+      <c r="G38" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -2114,7 +2144,7 @@
         <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2137,10 +2167,10 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2166,7 +2196,7 @@
         <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2192,7 +2222,7 @@
         <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2215,10 +2245,10 @@
         <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2241,10 +2271,10 @@
         <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2270,7 +2300,7 @@
         <v>213</v>
       </c>
       <c r="H45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2296,7 +2326,7 @@
         <v>220</v>
       </c>
       <c r="H46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2319,10 +2349,10 @@
         <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2345,10 +2375,10 @@
         <v>180</v>
       </c>
       <c r="G48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2371,10 +2401,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2400,7 +2430,7 @@
         <v>220</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2423,10 +2453,10 @@
         <v>180</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2452,7 +2482,7 @@
         <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2475,10 +2505,10 @@
         <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2500,6 +2530,12 @@
       <c r="F54" t="s">
         <v>193</v>
       </c>
+      <c r="G54" t="s">
+        <v>229</v>
+      </c>
+      <c r="H54" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
@@ -2520,6 +2556,12 @@
       <c r="F55" t="s">
         <v>179</v>
       </c>
+      <c r="G55" t="s">
+        <v>222</v>
+      </c>
+      <c r="H55" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
@@ -2541,10 +2583,10 @@
         <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2567,10 +2609,10 @@
         <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2596,7 +2638,7 @@
         <v>220</v>
       </c>
       <c r="H58" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2619,10 +2661,10 @@
         <v>196</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2644,6 +2686,12 @@
       <c r="F60" t="s">
         <v>179</v>
       </c>
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -2665,10 +2713,10 @@
         <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2694,7 +2742,7 @@
         <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2743,10 +2791,10 @@
         <v>197</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2769,10 +2817,10 @@
         <v>180</v>
       </c>
       <c r="G65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2795,10 +2843,10 @@
         <v>198</v>
       </c>
       <c r="G66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2821,10 +2869,10 @@
         <v>75</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2847,10 +2895,10 @@
         <v>199</v>
       </c>
       <c r="G68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H68" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2873,10 +2921,10 @@
         <v>200</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2902,7 +2950,7 @@
         <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2925,10 +2973,10 @@
         <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2977,10 +3025,10 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3006,7 +3054,7 @@
         <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3029,10 +3077,10 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3058,7 +3106,7 @@
         <v>213</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3084,7 +3132,7 @@
         <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3110,7 +3158,7 @@
         <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3159,10 +3207,10 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3188,7 +3236,7 @@
         <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3266,7 +3314,7 @@
         <v>220</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3289,10 +3337,10 @@
         <v>204</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3341,10 +3389,10 @@
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3370,7 +3418,7 @@
         <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3393,10 +3441,10 @@
         <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3419,10 +3467,10 @@
         <v>207</v>
       </c>
       <c r="G90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H90" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3445,10 +3493,10 @@
         <v>208</v>
       </c>
       <c r="G91" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H91" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3471,10 +3519,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3500,7 +3548,7 @@
         <v>220</v>
       </c>
       <c r="H93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3526,7 +3574,7 @@
         <v>220</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3552,7 +3600,7 @@
         <v>213</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3600,6 +3648,12 @@
       <c r="F97" t="s">
         <v>105</v>
       </c>
+      <c r="G97" t="s">
+        <v>248</v>
+      </c>
+      <c r="H97" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
@@ -3621,10 +3675,10 @@
         <v>106</v>
       </c>
       <c r="G98" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3647,10 +3701,10 @@
         <v>211</v>
       </c>
       <c r="G99" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3676,7 +3730,7 @@
         <v>220</v>
       </c>
       <c r="H100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220510_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220510_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="251">
   <si>
     <t>사이트</t>
   </si>
@@ -703,7 +703,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1179,7 @@
         <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1208,7 +1205,7 @@
         <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1286,7 +1283,7 @@
         <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1312,7 +1309,7 @@
         <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1364,7 +1361,7 @@
         <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1416,7 +1413,7 @@
         <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1442,7 +1439,7 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1468,7 +1465,7 @@
         <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1494,7 +1491,7 @@
         <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1520,7 +1517,7 @@
         <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1546,7 +1543,7 @@
         <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1598,7 +1595,7 @@
         <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1624,7 +1621,7 @@
         <v>224</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1702,7 +1699,7 @@
         <v>218</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1754,7 +1751,7 @@
         <v>227</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1780,7 +1777,7 @@
         <v>228</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1806,7 +1803,7 @@
         <v>229</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1832,7 +1829,7 @@
         <v>213</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1858,7 +1855,7 @@
         <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1884,7 +1881,7 @@
         <v>231</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1936,7 +1933,7 @@
         <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1988,7 +1985,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2014,7 +2011,7 @@
         <v>234</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2066,7 +2063,7 @@
         <v>218</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2092,7 +2089,7 @@
         <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2144,7 +2141,7 @@
         <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2170,7 +2167,7 @@
         <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2196,7 +2193,7 @@
         <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2222,7 +2219,7 @@
         <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2248,7 +2245,7 @@
         <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2300,7 +2297,7 @@
         <v>213</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2326,7 +2323,7 @@
         <v>220</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2352,7 +2349,7 @@
         <v>236</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2378,7 +2375,7 @@
         <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2404,7 +2401,7 @@
         <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2430,7 +2427,7 @@
         <v>220</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2456,7 +2453,7 @@
         <v>223</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2482,7 +2479,7 @@
         <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2508,7 +2505,7 @@
         <v>223</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2534,7 +2531,7 @@
         <v>229</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2586,7 +2583,7 @@
         <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2612,7 +2609,7 @@
         <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2638,7 +2635,7 @@
         <v>220</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2664,7 +2661,7 @@
         <v>239</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2742,7 +2739,7 @@
         <v>220</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2794,7 +2791,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2820,7 +2817,7 @@
         <v>223</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2846,7 +2843,7 @@
         <v>223</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2872,7 +2869,7 @@
         <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2898,7 +2895,7 @@
         <v>229</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2924,7 +2921,7 @@
         <v>239</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2950,7 +2947,7 @@
         <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2976,7 +2973,7 @@
         <v>242</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3028,7 +3025,7 @@
         <v>243</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3054,7 +3051,7 @@
         <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3106,7 +3103,7 @@
         <v>213</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3132,7 +3129,7 @@
         <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3158,7 +3155,7 @@
         <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3236,7 +3233,7 @@
         <v>213</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3314,7 +3311,7 @@
         <v>220</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3392,7 +3389,7 @@
         <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3418,7 +3415,7 @@
         <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3444,7 +3441,7 @@
         <v>239</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3470,7 +3467,7 @@
         <v>229</v>
       </c>
       <c r="H90" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3522,7 +3519,7 @@
         <v>247</v>
       </c>
       <c r="H92" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3548,7 +3545,7 @@
         <v>220</v>
       </c>
       <c r="H93" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3574,7 +3571,7 @@
         <v>220</v>
       </c>
       <c r="H94" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3600,7 +3597,7 @@
         <v>213</v>
       </c>
       <c r="H95" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3652,7 +3649,7 @@
         <v>248</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3678,7 +3675,7 @@
         <v>249</v>
       </c>
       <c r="H98" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3704,7 +3701,7 @@
         <v>250</v>
       </c>
       <c r="H99" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3730,7 +3727,7 @@
         <v>220</v>
       </c>
       <c r="H100" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8">
